--- a/data/trans_orig/P14A30-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A30-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51DDA010-ABEA-4442-B46D-010BC8EE91CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B480EB9-8CEE-4B4E-A108-EF5A0EADB77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92FA33F2-F2CB-4E52-8428-AE0CC278BC34}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49A55890-7B17-41E9-855D-1C94C7B2A1B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>68,06%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>69,13%</t>
   </si>
   <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>31,94%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
   </si>
   <si>
     <t>30,87%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>75,75%</t>
   </si>
   <si>
-    <t>37,17%</t>
+    <t>37,75%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -147,16 +147,16 @@
     <t>74,74%</t>
   </si>
   <si>
-    <t>36,76%</t>
+    <t>36,91%</t>
   </si>
   <si>
     <t>75,24%</t>
   </si>
   <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>24,25%</t>
@@ -165,22 +165,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>62,83%</t>
+    <t>62,25%</t>
   </si>
   <si>
     <t>25,26%</t>
   </si>
   <si>
-    <t>63,24%</t>
+    <t>63,09%</t>
   </si>
   <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -192,55 +192,55 @@
     <t>70,6%</t>
   </si>
   <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -261,10 +261,10 @@
     <t>52,74%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>41,79%</t>
@@ -279,64 +279,64 @@
     <t>47,26%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
   </si>
   <si>
     <t>69,25%</t>
   </si>
   <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>36,62%</t>
   </si>
   <si>
-    <t>85,1%</t>
+    <t>79,88%</t>
   </si>
   <si>
     <t>59,82%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
   </si>
   <si>
     <t>63,38%</t>
   </si>
   <si>
-    <t>14,9%</t>
+    <t>20,12%</t>
   </si>
   <si>
     <t>40,18%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
   </si>
   <si>
     <t>57,87%</t>
   </si>
   <si>
-    <t>12,64%</t>
+    <t>12,97%</t>
   </si>
   <si>
     <t>48,95%</t>
@@ -345,16 +345,16 @@
     <t>55,9%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>42,13%</t>
   </si>
   <si>
-    <t>87,36%</t>
+    <t>87,03%</t>
   </si>
   <si>
     <t>51,05%</t>
@@ -363,64 +363,64 @@
     <t>44,1%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>56,86%</t>
   </si>
   <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>35,93%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
   </si>
 </sst>
 </file>
@@ -832,7 +832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4FD16F-1F11-41B9-93F6-D23C243B3ACC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4F3D3F-C77B-4BBD-99F0-C715034B3BD0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6300B5-8B4D-4470-847D-F58E0F4AA0C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1EBEF6-861D-4BAE-A3BC-CB4347D8C18F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A30-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A30-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B480EB9-8CEE-4B4E-A108-EF5A0EADB77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7597D38F-3C93-4C48-BEFA-5736DDDB33C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49A55890-7B17-41E9-855D-1C94C7B2A1B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D141DBA5-82BC-4B84-8AF8-2BE44B209258}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
   <si>
     <t>Población que recibe medicación o terapia por cirrosis en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>68,06%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>69,13%</t>
   </si>
   <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>31,94%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
   </si>
   <si>
     <t>30,87%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>75,75%</t>
   </si>
   <si>
-    <t>37,75%</t>
+    <t>36,99%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -147,16 +147,16 @@
     <t>74,74%</t>
   </si>
   <si>
-    <t>36,91%</t>
+    <t>36,68%</t>
   </si>
   <si>
     <t>75,24%</t>
   </si>
   <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>24,25%</t>
@@ -165,22 +165,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>62,25%</t>
+    <t>63,01%</t>
   </si>
   <si>
     <t>25,26%</t>
   </si>
   <si>
-    <t>63,09%</t>
+    <t>63,32%</t>
   </si>
   <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -192,151 +192,157 @@
     <t>70,6%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por cirrosis en 2015 (Tasa respuesta: 0,52%)</t>
+    <t>Población que recibe medicación o terapia por cirrosis en 2016 (Tasa respuesta: 0,52%)</t>
   </si>
   <si>
     <t>58,21%</t>
   </si>
   <si>
-    <t>14,67%</t>
+    <t>13,97%</t>
   </si>
   <si>
     <t>48,48%</t>
   </si>
   <si>
+    <t>88,29%</t>
+  </si>
+  <si>
     <t>52,74%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>41,79%</t>
   </si>
   <si>
-    <t>85,33%</t>
+    <t>86,03%</t>
   </si>
   <si>
     <t>51,52%</t>
   </si>
   <si>
+    <t>11,71%</t>
+  </si>
+  <si>
     <t>47,26%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>69,25%</t>
   </si>
   <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>36,62%</t>
   </si>
   <si>
-    <t>79,88%</t>
+    <t>79,94%</t>
   </si>
   <si>
     <t>59,82%</t>
   </si>
   <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
   </si>
   <si>
     <t>63,38%</t>
   </si>
   <si>
-    <t>20,12%</t>
+    <t>20,06%</t>
   </si>
   <si>
     <t>40,18%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
   </si>
   <si>
     <t>57,87%</t>
   </si>
   <si>
-    <t>12,97%</t>
+    <t>13,29%</t>
   </si>
   <si>
     <t>48,95%</t>
@@ -345,16 +351,16 @@
     <t>55,9%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>42,13%</t>
   </si>
   <si>
-    <t>87,03%</t>
+    <t>86,71%</t>
   </si>
   <si>
     <t>51,05%</t>
@@ -363,64 +369,64 @@
     <t>44,1%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>56,86%</t>
   </si>
   <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>35,93%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
   </si>
 </sst>
 </file>
@@ -832,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4F3D3F-C77B-4BBD-99F0-C715034B3BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36666048-6222-4752-8C17-5A227ADBE44C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1565,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1EBEF6-861D-4BAE-A3BC-CB4347D8C18F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB7DD8C-16C6-488B-A886-9492DDD7F7F7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1710,7 +1716,7 @@
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -1719,13 +1725,13 @@
         <v>6097</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,13 +1746,13 @@
         <v>2116</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -1755,10 +1761,10 @@
         <v>3348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>34</v>
@@ -1770,13 +1776,13 @@
         <v>5464</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,13 +1850,13 @@
         <v>9232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -1859,13 +1865,13 @@
         <v>1983</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -1874,13 +1880,13 @@
         <v>11216</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,13 +1901,13 @@
         <v>4100</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1910,10 +1916,10 @@
         <v>3432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
@@ -1925,13 +1931,13 @@
         <v>7532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,10 +2005,10 @@
         <v>3685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>34</v>
@@ -2014,7 +2020,7 @@
         <v>885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>41</v>
@@ -2029,13 +2035,13 @@
         <v>4569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2056,13 @@
         <v>2682</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2065,7 +2071,7 @@
         <v>922</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>41</v>
@@ -2080,13 +2086,13 @@
         <v>3605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,13 +2160,13 @@
         <v>15865</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2169,13 +2175,13 @@
         <v>6017</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2184,13 +2190,13 @@
         <v>21882</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2211,13 @@
         <v>8899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2220,13 +2226,13 @@
         <v>7703</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -2235,13 +2241,13 @@
         <v>16601</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
